--- a/biology/Médecine/1146_en_santé_et_médecine/1146_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1146_en_santé_et_médecine/1146_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1146_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1146_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1146 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1146_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1146_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de la léproserie de la Madeleine, à Lyon[1],[2].
-Fondation d'une léproserie par la commune de Gand, en Flandre[3].
-Acte de donation « faite aux pauvres lépreux habitants près du pont de Vesle » par un croisé partant pour Jérusalem, et qui marque peut-être l'origine des léproseries Saint-Ladre aux hommes et Saint-Ladre aux femmes de Reims, en Champagne, établissements dont les dates de fondation restent inconnues[4].
-1146 ? : fondation d'un hôpital de pèlerins dépendant de l'abbaye de Sorde, dans les Landes, en Aquitaine[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de la léproserie de la Madeleine, à Lyon,.
+Fondation d'une léproserie par la commune de Gand, en Flandre.
+Acte de donation « faite aux pauvres lépreux habitants près du pont de Vesle » par un croisé partant pour Jérusalem, et qui marque peut-être l'origine des léproseries Saint-Ladre aux hommes et Saint-Ladre aux femmes de Reims, en Champagne, établissements dont les dates de fondation restent inconnues.
+1146 ? : fondation d'un hôpital de pèlerins dépendant de l'abbaye de Sorde, dans les Landes, en Aquitaine.
 Vers 1146
-Fondation de l'aumônerie Saint-Sauveur du Hanneloup[6] à Angers[7].
-Fondation au village de la Madeleine, près Combourg, en Bretagne, d'une « maladrerie ou léproserie [dont] la chapelle existe[ra] jusque vers 1570[8] ».</t>
+Fondation de l'aumônerie Saint-Sauveur du Hanneloup à Angers.
+Fondation au village de la Madeleine, près Combourg, en Bretagne, d'une « maladrerie ou léproserie [dont] la chapelle existe[ra] jusque vers 1570 ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1146_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1146_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin chinois Dou Cai (1076-1146) publie le Bian Que xin shu[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin chinois Dou Cai (1076-1146) publie le Bian Que xin shu.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1146_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1146_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Raoul, « physicien, chanoine de Notre-Dame de Montréal-en-Auxois[10] » en Bourgogne.
-Vers 1146 : fl. Richard, « médecin et moine de la Sainte-Trinité de Tiron[10] », dans le comté du Perche.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Raoul, « physicien, chanoine de Notre-Dame de Montréal-en-Auxois » en Bourgogne.
+Vers 1146 : fl. Richard, « médecin et moine de la Sainte-Trinité de Tiron », dans le comté du Perche.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1146_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1146_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1146 ou 1147 : Robert (né à une date inconnue), médecin de Suger, abbé de Saint-Denis[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1146 ou 1147 : Robert (né à une date inconnue), médecin de Suger, abbé de Saint-Denis.
 </t>
         </is>
       </c>
